--- a/data/population-checks.xlsx
+++ b/data/population-checks.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="183">
   <si>
     <t>Country</t>
   </si>
@@ -129,9 +129,6 @@
     <t>Kenya</t>
   </si>
   <si>
-    <t>England &amp; Wales</t>
-  </si>
-  <si>
     <t>Namibia</t>
   </si>
   <si>
@@ -174,9 +171,6 @@
     <t>Libya</t>
   </si>
   <si>
-    <t>Northern Ireland</t>
-  </si>
-  <si>
     <t>Oman</t>
   </si>
   <si>
@@ -369,9 +363,6 @@
     <t>El Salvador</t>
   </si>
   <si>
-    <t>Scotland</t>
-  </si>
-  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -450,9 +441,6 @@
     <t>Brunei</t>
   </si>
   <si>
-    <t>Democratic Republic of C</t>
-  </si>
-  <si>
     <t>Tanzania</t>
   </si>
   <si>
@@ -573,25 +561,13 @@
     <t>checked population 2005</t>
   </si>
   <si>
-    <t>world bank</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>mid-2005</t>
-  </si>
-  <si>
-    <t>scotland</t>
-  </si>
-  <si>
-    <t>seems roughly</t>
-  </si>
-  <si>
     <t>505,153 in 2004</t>
   </si>
   <si>
-    <t>uk</t>
+    <t>Democratic Republic of Congo</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
   </si>
 </sst>
 </file>
@@ -754,7 +730,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -934,20 +910,8 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor theme="0" tint="-0.14999847407452621"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1062,15 +1026,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1116,21 +1071,16 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1200,16 +1150,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G180" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:G180"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F177" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:F177"/>
+  <tableColumns count="6">
     <tableColumn id="1" name="Country"/>
     <tableColumn id="2" name="Average firearms per 100 people"/>
     <tableColumn id="3" name="DerivedAverage"/>
     <tableColumn id="4" name="Average total all civilian firearms" dataDxfId="1"/>
     <tableColumn id="5" name="Population, 2005" dataDxfId="0"/>
     <tableColumn id="6" name="checked population 2005"/>
-    <tableColumn id="7" name="source"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1512,16 +1461,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I182"/>
+  <dimension ref="A1:H177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G98" sqref="G98"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E114" sqref="E114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" customWidth="1"/>
@@ -1529,30 +1478,27 @@
     <col min="6" max="6" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1562,20 +1508,17 @@
       <c r="C2">
         <v>0.1</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>22000</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="4">
         <v>16321900</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>776585</v>
       </c>
-      <c r="G2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1585,17 +1528,17 @@
       <c r="C3">
         <v>0.2</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>180000</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="4">
         <v>74032900</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>4748000</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1605,17 +1548,17 @@
       <c r="C4">
         <v>0.3</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>22000</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="4">
         <v>8388000</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>650417</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1625,17 +1568,17 @@
       <c r="C5">
         <v>0.4</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>125000</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="4">
         <v>30946700</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>3320000</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1645,17 +1588,17 @@
       <c r="C6">
         <v>0.3</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>11000</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="4">
         <v>3414300</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>600733</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1665,17 +1608,17 @@
       <c r="C7">
         <v>0.6</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>47000</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="4">
         <v>7547600</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>1926000</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1685,17 +1628,17 @@
       <c r="C8">
         <v>1.9</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>9500</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="4">
         <v>506800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>478651</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1705,17 +1648,17 @@
       <c r="C9">
         <v>298.39999999999998</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>1900000</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="4">
         <v>636700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>71780000</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1725,17 +1668,17 @@
       <c r="C10">
         <v>32.799999999999997</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>260000</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="4">
         <v>793100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>9355000</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1745,17 +1688,17 @@
       <c r="C11">
         <v>8.3000000000000007</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>50000</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="4">
         <v>600500</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>2527000</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1765,57 +1708,57 @@
       <c r="C12">
         <v>15.2</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>735000</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="4">
         <v>4833300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>18170000</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="3">
         <v>19.2</v>
       </c>
       <c r="C13">
         <v>64</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="4">
         <v>520100</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="5">
         <v>812900</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <v>821159</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="3">
         <v>1.5</v>
       </c>
       <c r="C14">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="4">
         <v>1200000</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="5">
         <v>26167400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <v>26170000</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1825,17 +1768,17 @@
       <c r="C15">
         <v>3.1</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="4">
         <v>40000000</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="5">
         <v>1304500000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <v>1304000000</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1845,13 +1788,13 @@
       <c r="C16">
         <v>8</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <v>290000</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="4">
         <v>3626000</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <v>8392000</v>
       </c>
     </row>
@@ -1865,13 +1808,13 @@
       <c r="C17">
         <v>12.2</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="4">
         <v>280000</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="5">
         <v>2300500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="2">
         <v>2239000</v>
       </c>
     </row>
@@ -1885,14 +1828,14 @@
       <c r="C18">
         <v>5.6</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>100000</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="4">
         <v>1794800</v>
       </c>
-      <c r="F18" s="3">
-        <v>54030000</v>
+      <c r="F18" s="2">
+        <v>3543000</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1905,13 +1848,13 @@
       <c r="C19">
         <v>4.7</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <v>400000</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="4">
         <v>8527800</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="2">
         <v>17390000</v>
       </c>
     </row>
@@ -1925,13 +1868,13 @@
       <c r="C20">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="4">
         <v>3500000</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="5">
         <v>68251100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="2">
         <v>70150000</v>
       </c>
     </row>
@@ -1945,13 +1888,13 @@
       <c r="C21">
         <v>26</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="4">
         <v>6000000</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="5">
         <v>23119000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="2">
         <v>24690000</v>
       </c>
     </row>
@@ -1965,13 +1908,13 @@
       <c r="C22">
         <v>5.8</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="4">
         <v>1900000</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="5">
         <v>32853800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="2">
         <v>33960000</v>
       </c>
     </row>
@@ -1985,13 +1928,13 @@
       <c r="C23">
         <v>1.3</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="4">
         <v>1100000</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="5">
         <v>83119000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="2">
         <v>82390000</v>
       </c>
     </row>
@@ -2005,13 +1948,13 @@
       <c r="C24">
         <v>6.9</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="4">
         <v>500000</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="5">
         <v>7204800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="2">
         <v>6899000</v>
       </c>
     </row>
@@ -2019,19 +1962,19 @@
       <c r="A25" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="3">
         <v>2.8</v>
       </c>
       <c r="C25">
         <v>2.6</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="4">
         <v>340000</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="4">
         <v>13228500</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="2">
         <v>18140000</v>
       </c>
     </row>
@@ -2045,13 +1988,13 @@
       <c r="C26">
         <v>15.6</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="4">
         <v>1600000</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="5">
         <v>10234100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="2">
         <v>10210000</v>
       </c>
     </row>
@@ -2065,13 +2008,13 @@
       <c r="C27">
         <v>30.3</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="5">
         <v>1400000</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="5">
         <v>4623300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="2">
         <v>4623000</v>
       </c>
     </row>
@@ -2085,13 +2028,13 @@
       <c r="C28">
         <v>13.7</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="5">
         <v>190000</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="5">
         <v>1383900</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="2">
         <v>1379000</v>
       </c>
     </row>
@@ -2105,13 +2048,13 @@
       <c r="C29">
         <v>31</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="5">
         <v>2800000</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="5">
         <v>9024100</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="2">
         <v>9030000</v>
       </c>
     </row>
@@ -2125,13 +2068,13 @@
       <c r="C30">
         <v>5.6</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="2">
         <v>560000</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="5">
         <v>10087100</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="2">
         <v>10090000</v>
       </c>
     </row>
@@ -2145,13 +2088,13 @@
       <c r="C31">
         <v>17.600000000000001</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="2">
         <v>2800000</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="5">
         <v>15941400</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="2">
         <v>16540000</v>
       </c>
     </row>
@@ -2159,346 +2102,340 @@
       <c r="A32" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="3">
         <v>6.4</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="6">
         <v>6.3</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="2">
         <v>740000</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="4">
         <v>11658200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="2">
         <v>35790000</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>36</v>
       </c>
       <c r="B33">
-        <v>6.2</v>
+        <v>12.6</v>
       </c>
       <c r="C33">
-        <v>6.3</v>
-      </c>
-      <c r="D33" s="3">
-        <v>3400000</v>
-      </c>
-      <c r="E33" s="7">
-        <v>53728900</v>
-      </c>
-      <c r="F33" s="3">
-        <v>53416300</v>
-      </c>
-      <c r="G33" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>12.8</v>
+      </c>
+      <c r="D33" s="2">
+        <v>260000</v>
+      </c>
+      <c r="E33" s="5">
+        <v>2031300</v>
+      </c>
+      <c r="F33" s="2">
+        <v>2027000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>37</v>
       </c>
       <c r="B34">
-        <v>12.6</v>
+        <v>6.5</v>
       </c>
       <c r="C34">
-        <v>12.8</v>
-      </c>
-      <c r="D34" s="3">
-        <v>260000</v>
-      </c>
-      <c r="E34" s="7">
-        <v>2031300</v>
-      </c>
-      <c r="F34" s="3">
-        <v>2027000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6.4</v>
+      </c>
+      <c r="D34" s="2">
+        <v>21000</v>
+      </c>
+      <c r="E34" s="5">
+        <v>329200</v>
+      </c>
+      <c r="F34" s="2">
+        <v>297576</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>38</v>
       </c>
       <c r="B35">
-        <v>6.5</v>
+        <v>21.7</v>
       </c>
       <c r="C35">
-        <v>6.4</v>
-      </c>
-      <c r="D35" s="3">
-        <v>21000</v>
-      </c>
-      <c r="E35" s="7">
-        <v>329200</v>
-      </c>
-      <c r="F35" s="3">
-        <v>297576</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>21.4</v>
+      </c>
+      <c r="D35" s="2">
+        <v>950000</v>
+      </c>
+      <c r="E35" s="5">
+        <v>4443400</v>
+      </c>
+      <c r="F35" s="2">
+        <v>4442000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>39</v>
       </c>
       <c r="B36">
-        <v>21.7</v>
+        <v>7.3</v>
       </c>
       <c r="C36">
-        <v>21.4</v>
-      </c>
-      <c r="D36" s="3">
-        <v>950000</v>
-      </c>
-      <c r="E36" s="7">
-        <v>4443400</v>
-      </c>
-      <c r="F36" s="3">
-        <v>4442000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7.2</v>
+      </c>
+      <c r="D36" s="2">
+        <v>500000</v>
+      </c>
+      <c r="E36" s="5">
+        <v>6923600</v>
+      </c>
+      <c r="F36" s="2">
+        <v>6930000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>40</v>
       </c>
       <c r="B37">
-        <v>7.3</v>
+        <v>14.7</v>
       </c>
       <c r="C37">
-        <v>7.2</v>
-      </c>
-      <c r="D37" s="3">
-        <v>500000</v>
-      </c>
-      <c r="E37" s="7">
-        <v>6923600</v>
-      </c>
-      <c r="F37" s="3">
-        <v>6930000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>14.5</v>
+      </c>
+      <c r="D37" s="2">
+        <v>180000</v>
+      </c>
+      <c r="E37" s="5">
+        <v>1243300</v>
+      </c>
+      <c r="F37" s="2">
+        <v>1243000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>41</v>
       </c>
       <c r="B38">
-        <v>14.7</v>
+        <v>7.3</v>
       </c>
       <c r="C38">
-        <v>14.5</v>
-      </c>
-      <c r="D38" s="3">
-        <v>180000</v>
-      </c>
-      <c r="E38" s="7">
-        <v>1243300</v>
-      </c>
-      <c r="F38" s="3">
-        <v>1243000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7.4</v>
+      </c>
+      <c r="D38" s="2">
+        <v>330000</v>
+      </c>
+      <c r="E38" s="5">
+        <v>4474400</v>
+      </c>
+      <c r="F38" s="2">
+        <v>4361000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>42</v>
       </c>
       <c r="B39">
-        <v>7.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="C39">
-        <v>7.4</v>
-      </c>
-      <c r="D39" s="3">
-        <v>330000</v>
-      </c>
-      <c r="E39" s="7">
-        <v>4474400</v>
-      </c>
-      <c r="F39" s="3">
-        <v>4361000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8.4</v>
+      </c>
+      <c r="D39" s="2">
+        <v>450000</v>
+      </c>
+      <c r="E39" s="5">
+        <v>5387000</v>
+      </c>
+      <c r="F39" s="2">
+        <v>5373000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>43</v>
       </c>
       <c r="B40">
-        <v>8.3000000000000007</v>
+        <v>8.6</v>
       </c>
       <c r="C40">
-        <v>8.4</v>
-      </c>
-      <c r="D40" s="3">
-        <v>450000</v>
-      </c>
-      <c r="E40" s="7">
-        <v>5387000</v>
-      </c>
-      <c r="F40" s="3">
-        <v>5373000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="D40" s="2">
+        <v>360000</v>
+      </c>
+      <c r="E40" s="5">
+        <v>4159100</v>
+      </c>
+      <c r="F40" s="2">
+        <v>4160000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>44</v>
       </c>
-      <c r="B41">
-        <v>8.6</v>
+      <c r="B41" s="3">
+        <v>8.9</v>
       </c>
       <c r="C41">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="D41" s="3">
-        <v>360000</v>
-      </c>
-      <c r="E41" s="7">
-        <v>4159100</v>
-      </c>
-      <c r="F41" s="3">
-        <v>4160000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2">
+        <v>230000</v>
+      </c>
+      <c r="E41" s="4">
+        <v>2554000</v>
+      </c>
+      <c r="F41" s="2">
+        <v>11470000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>45</v>
       </c>
-      <c r="B42" s="5">
-        <v>8.9</v>
+      <c r="B42">
+        <v>9.1999999999999993</v>
       </c>
       <c r="C42">
-        <v>9</v>
-      </c>
-      <c r="D42" s="3">
-        <v>230000</v>
-      </c>
-      <c r="E42" s="6">
-        <v>2554000</v>
-      </c>
-      <c r="F42" s="3">
-        <v>11470000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9.1</v>
+      </c>
+      <c r="D42" s="2">
+        <v>123000</v>
+      </c>
+      <c r="E42" s="5">
+        <v>1346100</v>
+      </c>
+      <c r="F42" s="2">
+        <v>1355000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>46</v>
       </c>
       <c r="B43">
-        <v>9.1999999999999993</v>
+        <v>10</v>
       </c>
       <c r="C43">
-        <v>9.1</v>
-      </c>
-      <c r="D43" s="3">
-        <v>123000</v>
-      </c>
-      <c r="E43" s="7">
-        <v>1346100</v>
-      </c>
-      <c r="F43" s="3">
-        <v>1355000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9.9</v>
+      </c>
+      <c r="D43" s="2">
+        <v>29000</v>
+      </c>
+      <c r="E43" s="5">
+        <v>291800</v>
+      </c>
+      <c r="F43" s="2">
+        <v>271920</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>47</v>
       </c>
       <c r="B44">
-        <v>10</v>
+        <v>45.3</v>
       </c>
       <c r="C44">
-        <v>9.9</v>
-      </c>
-      <c r="D44" s="3">
-        <v>29000</v>
-      </c>
-      <c r="E44" s="7">
-        <v>291800</v>
-      </c>
-      <c r="F44" s="3">
-        <v>271920</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+        <v>45.7</v>
+      </c>
+      <c r="D44" s="2">
+        <v>2400000</v>
+      </c>
+      <c r="E44" s="5">
+        <v>5246100</v>
+      </c>
+      <c r="F44" s="2">
+        <v>5246000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>48</v>
       </c>
       <c r="B45">
-        <v>45.3</v>
+        <v>12.5</v>
       </c>
       <c r="C45">
-        <v>45.7</v>
-      </c>
-      <c r="D45" s="3">
-        <v>2400000</v>
-      </c>
-      <c r="E45" s="7">
-        <v>5246100</v>
-      </c>
-      <c r="F45" s="3">
-        <v>5246000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <v>12.6</v>
+      </c>
+      <c r="D45" s="2">
+        <v>380000</v>
+      </c>
+      <c r="E45" s="5">
+        <v>3016400</v>
+      </c>
+      <c r="F45" s="2">
+        <v>3015000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>49</v>
       </c>
       <c r="B46">
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
       <c r="C46">
-        <v>12.6</v>
-      </c>
-      <c r="D46" s="3">
-        <v>380000</v>
-      </c>
-      <c r="E46" s="7">
-        <v>3016400</v>
-      </c>
-      <c r="F46" s="3">
-        <v>3015000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15.4</v>
+      </c>
+      <c r="D46" s="2">
+        <v>900000</v>
+      </c>
+      <c r="E46" s="5">
+        <v>5853500</v>
+      </c>
+      <c r="F46" s="2">
+        <v>5594000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>50</v>
       </c>
       <c r="B47">
-        <v>15.5</v>
+        <v>25.4</v>
       </c>
       <c r="C47">
-        <v>15.4</v>
-      </c>
-      <c r="D47" s="3">
-        <v>900000</v>
-      </c>
-      <c r="E47" s="7">
-        <v>5853500</v>
-      </c>
-      <c r="F47" s="3">
-        <v>5594000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <v>25.3</v>
+      </c>
+      <c r="D47" s="2">
+        <v>650000</v>
+      </c>
+      <c r="E47" s="5">
+        <v>2567000</v>
+      </c>
+      <c r="F47" s="2">
+        <v>2522000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>51</v>
       </c>
       <c r="B48">
-        <v>21.9</v>
+        <v>36.4</v>
       </c>
       <c r="C48">
-        <v>21.8</v>
-      </c>
-      <c r="D48" s="3">
-        <v>380000</v>
-      </c>
-      <c r="E48" s="7">
-        <v>1741600</v>
-      </c>
-      <c r="F48" s="3">
-        <v>1724400</v>
-      </c>
-      <c r="G48" t="s">
-        <v>186</v>
+        <v>36.299999999999997</v>
+      </c>
+      <c r="D48" s="2">
+        <v>275000</v>
+      </c>
+      <c r="E48" s="5">
+        <v>757800</v>
+      </c>
+      <c r="F48" s="2">
+        <v>1033000</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -2506,39 +2443,39 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>25.4</v>
+        <v>88.8</v>
       </c>
       <c r="C49">
-        <v>25.3</v>
-      </c>
-      <c r="D49" s="3">
-        <v>650000</v>
-      </c>
-      <c r="E49" s="7">
-        <v>2567000</v>
-      </c>
-      <c r="F49" s="3">
-        <v>2522000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+        <v>88.8</v>
+      </c>
+      <c r="D49" s="2">
+        <v>270000000</v>
+      </c>
+      <c r="E49" s="2">
+        <v>304201200</v>
+      </c>
+      <c r="F49" s="2">
+        <v>295500000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>53</v>
       </c>
-      <c r="B50" s="11">
-        <v>36.4</v>
-      </c>
-      <c r="C50" s="1">
-        <v>36.299999999999997</v>
-      </c>
-      <c r="D50" s="4">
-        <v>275000</v>
-      </c>
-      <c r="E50" s="10">
-        <v>757800</v>
-      </c>
-      <c r="F50" s="4">
-        <v>1033000</v>
+      <c r="B50">
+        <v>54.8</v>
+      </c>
+      <c r="C50">
+        <v>54.8</v>
+      </c>
+      <c r="D50" s="2">
+        <v>11500000</v>
+      </c>
+      <c r="E50" s="2">
+        <v>20974700</v>
+      </c>
+      <c r="F50" s="2">
+        <v>20140000</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -2546,19 +2483,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>88.8</v>
+        <v>45.7</v>
       </c>
       <c r="C51">
-        <v>88.8</v>
-      </c>
-      <c r="D51" s="3">
-        <v>270000000</v>
-      </c>
-      <c r="E51" s="3">
-        <v>304201200</v>
-      </c>
-      <c r="F51" s="3">
-        <v>295500000</v>
+        <v>45.7</v>
+      </c>
+      <c r="D51" s="2">
+        <v>3400000</v>
+      </c>
+      <c r="E51" s="2">
+        <v>7437100</v>
+      </c>
+      <c r="F51" s="2">
+        <v>7437000</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2566,19 +2503,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>54.8</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="C52">
-        <v>54.8</v>
-      </c>
-      <c r="D52" s="3">
-        <v>11500000</v>
-      </c>
-      <c r="E52" s="3">
-        <v>20974700</v>
-      </c>
-      <c r="F52" s="3">
-        <v>20140000</v>
+        <v>37.799999999999997</v>
+      </c>
+      <c r="D52" s="2">
+        <v>3050000</v>
+      </c>
+      <c r="E52" s="2">
+        <v>8064300</v>
+      </c>
+      <c r="F52" s="2">
+        <v>7441000</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2586,19 +2523,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>45.7</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="C53">
-        <v>45.7</v>
-      </c>
-      <c r="D53" s="3">
-        <v>3400000</v>
-      </c>
-      <c r="E53" s="3">
-        <v>7437100</v>
-      </c>
-      <c r="F53" s="3">
-        <v>7437000</v>
+        <v>34.200000000000003</v>
+      </c>
+      <c r="D53" s="2">
+        <v>9750000</v>
+      </c>
+      <c r="E53" s="2">
+        <v>28505900</v>
+      </c>
+      <c r="F53" s="2">
+        <v>27380000</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2606,19 +2543,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>37.799999999999997</v>
+        <v>31.8</v>
       </c>
       <c r="C54">
-        <v>37.799999999999997</v>
-      </c>
-      <c r="D54" s="3">
-        <v>3050000</v>
-      </c>
-      <c r="E54" s="3">
-        <v>8064300</v>
-      </c>
-      <c r="F54" s="3">
-        <v>7441000</v>
+        <v>31.8</v>
+      </c>
+      <c r="D54" s="2">
+        <v>1100000</v>
+      </c>
+      <c r="E54" s="2">
+        <v>3463200</v>
+      </c>
+      <c r="F54" s="2">
+        <v>3325000</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2626,19 +2563,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>34.200000000000003</v>
+        <v>31.2</v>
       </c>
       <c r="C55">
-        <v>34.200000000000003</v>
-      </c>
-      <c r="D55" s="3">
-        <v>9750000</v>
-      </c>
-      <c r="E55" s="3">
-        <v>28505900</v>
-      </c>
-      <c r="F55" s="3">
-        <v>27380000</v>
+        <v>31.2</v>
+      </c>
+      <c r="D55" s="2">
+        <v>19000000</v>
+      </c>
+      <c r="E55" s="2">
+        <v>60873000</v>
+      </c>
+      <c r="F55" s="2">
+        <v>63180000</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2646,19 +2583,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>31.8</v>
+        <v>30.8</v>
       </c>
       <c r="C56">
-        <v>31.8</v>
-      </c>
-      <c r="D56" s="3">
-        <v>1100000</v>
-      </c>
-      <c r="E56" s="3">
-        <v>3463200</v>
-      </c>
-      <c r="F56" s="3">
-        <v>3325000</v>
+        <v>30.8</v>
+      </c>
+      <c r="D56" s="2">
+        <v>9950000</v>
+      </c>
+      <c r="E56" s="2">
+        <v>32299000</v>
+      </c>
+      <c r="F56" s="2">
+        <v>32310000</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2666,19 +2603,19 @@
         <v>60</v>
       </c>
       <c r="B57">
-        <v>31.2</v>
+        <v>30.4</v>
       </c>
       <c r="C57">
-        <v>31.2</v>
-      </c>
-      <c r="D57" s="3">
-        <v>19000000</v>
-      </c>
-      <c r="E57" s="3">
-        <v>60873000</v>
-      </c>
-      <c r="F57" s="3">
-        <v>63180000</v>
+        <v>30.4</v>
+      </c>
+      <c r="D57" s="2">
+        <v>2500000</v>
+      </c>
+      <c r="E57" s="2">
+        <v>8233300</v>
+      </c>
+      <c r="F57" s="2">
+        <v>8228000</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2686,19 +2623,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>30.8</v>
+        <v>30.3</v>
       </c>
       <c r="C58">
-        <v>30.8</v>
-      </c>
-      <c r="D58" s="3">
-        <v>9950000</v>
-      </c>
-      <c r="E58" s="3">
-        <v>32299000</v>
-      </c>
-      <c r="F58" s="3">
-        <v>32310000</v>
+        <v>30.3</v>
+      </c>
+      <c r="D58" s="2">
+        <v>25000000</v>
+      </c>
+      <c r="E58" s="2">
+        <v>82469400</v>
+      </c>
+      <c r="F58" s="2">
+        <v>82470000</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2706,19 +2643,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="C59">
-        <v>30.4</v>
-      </c>
-      <c r="D59" s="3">
-        <v>2500000</v>
-      </c>
-      <c r="E59" s="3">
-        <v>8233300</v>
-      </c>
-      <c r="F59" s="3">
-        <v>8228000</v>
+        <v>30.3</v>
+      </c>
+      <c r="D59" s="2">
+        <v>90000</v>
+      </c>
+      <c r="E59" s="2">
+        <v>296800</v>
+      </c>
+      <c r="F59" s="2">
+        <v>296734</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2726,19 +2663,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>30.3</v>
+        <v>24.8</v>
       </c>
       <c r="C60">
-        <v>30.3</v>
-      </c>
-      <c r="D60" s="3">
-        <v>25000000</v>
-      </c>
-      <c r="E60" s="3">
-        <v>82469400</v>
-      </c>
-      <c r="F60" s="3">
-        <v>82470000</v>
+        <v>24.8</v>
+      </c>
+      <c r="D60" s="2">
+        <v>180000</v>
+      </c>
+      <c r="E60" s="2">
+        <v>726700</v>
+      </c>
+      <c r="F60" s="2">
+        <v>879534</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2746,19 +2683,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>30.3</v>
+        <v>24.8</v>
       </c>
       <c r="C61">
-        <v>30.3</v>
-      </c>
-      <c r="D61" s="3">
-        <v>90000</v>
-      </c>
-      <c r="E61" s="3">
-        <v>296800</v>
-      </c>
-      <c r="F61" s="3">
-        <v>296734</v>
+        <v>24.8</v>
+      </c>
+      <c r="D61" s="2">
+        <v>630000</v>
+      </c>
+      <c r="E61" s="2">
+        <v>2535500</v>
+      </c>
+      <c r="F61" s="2">
+        <v>2296000</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2766,19 +2703,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>24.8</v>
+        <v>24.1</v>
       </c>
       <c r="C62">
-        <v>24.8</v>
-      </c>
-      <c r="D62" s="3">
-        <v>180000</v>
-      </c>
-      <c r="E62" s="3">
-        <v>726700</v>
-      </c>
-      <c r="F62" s="3">
-        <v>879534</v>
+        <v>24.1</v>
+      </c>
+      <c r="D62" s="2">
+        <v>490000</v>
+      </c>
+      <c r="E62" s="2">
+        <v>2034100</v>
+      </c>
+      <c r="F62" s="2">
+        <v>2090000</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2786,19 +2723,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>24.8</v>
+        <v>23.1</v>
       </c>
       <c r="C63">
-        <v>24.8</v>
-      </c>
-      <c r="D63" s="3">
-        <v>630000</v>
-      </c>
-      <c r="E63" s="3">
-        <v>2535500</v>
-      </c>
-      <c r="F63" s="3">
-        <v>2296000</v>
+        <v>23.1</v>
+      </c>
+      <c r="D63" s="2">
+        <v>150000</v>
+      </c>
+      <c r="E63" s="2">
+        <v>650000</v>
+      </c>
+      <c r="F63" s="2">
+        <v>615820</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2806,19 +2743,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>24.1</v>
+        <v>22.6</v>
       </c>
       <c r="C64">
-        <v>24.1</v>
-      </c>
-      <c r="D64" s="3">
-        <v>490000</v>
-      </c>
-      <c r="E64" s="3">
-        <v>2034100</v>
-      </c>
-      <c r="F64" s="3">
-        <v>2090000</v>
+        <v>22.6</v>
+      </c>
+      <c r="D64" s="2">
+        <v>925000</v>
+      </c>
+      <c r="E64" s="2">
+        <v>4098900</v>
+      </c>
+      <c r="F64" s="2">
+        <v>4134000</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2826,19 +2763,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>23.1</v>
+        <v>22.5</v>
       </c>
       <c r="C65">
-        <v>23.1</v>
-      </c>
-      <c r="D65" s="3">
-        <v>150000</v>
-      </c>
-      <c r="E65" s="3">
-        <v>650000</v>
-      </c>
-      <c r="F65" s="3">
-        <v>615820</v>
+        <v>22.5</v>
+      </c>
+      <c r="D65" s="2">
+        <v>2500000</v>
+      </c>
+      <c r="E65" s="2">
+        <v>11104000</v>
+      </c>
+      <c r="F65" s="2">
+        <v>11090000</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2846,19 +2783,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>22.6</v>
+        <v>22.1</v>
       </c>
       <c r="C66">
-        <v>22.6</v>
-      </c>
-      <c r="D66" s="3">
-        <v>925000</v>
-      </c>
-      <c r="E66" s="3">
-        <v>4098900</v>
-      </c>
-      <c r="F66" s="3">
-        <v>4134000</v>
+        <v>22.1</v>
+      </c>
+      <c r="D66" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E66" s="2">
+        <v>4533200</v>
+      </c>
+      <c r="F66" s="2">
+        <v>4149000</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2866,19 +2803,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>22.5</v>
+        <v>21.7</v>
       </c>
       <c r="C67">
-        <v>22.5</v>
-      </c>
-      <c r="D67" s="3">
-        <v>2500000</v>
-      </c>
-      <c r="E67" s="3">
-        <v>11104000</v>
-      </c>
-      <c r="F67" s="3">
-        <v>11090000</v>
+        <v>21.7</v>
+      </c>
+      <c r="D67" s="2">
+        <v>700000</v>
+      </c>
+      <c r="E67" s="2">
+        <v>3231500</v>
+      </c>
+      <c r="F67" s="2">
+        <v>3366000</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2886,19 +2823,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>22.1</v>
+        <v>21</v>
       </c>
       <c r="C68">
-        <v>22.1</v>
-      </c>
-      <c r="D68" s="3">
-        <v>1000000</v>
-      </c>
-      <c r="E68" s="3">
-        <v>4533200</v>
-      </c>
-      <c r="F68" s="3">
-        <v>4149000</v>
+        <v>21</v>
+      </c>
+      <c r="D68" s="2">
+        <v>750000</v>
+      </c>
+      <c r="E68" s="2">
+        <v>3576900</v>
+      </c>
+      <c r="F68" s="2">
+        <v>3987000</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2906,19 +2843,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>21.7</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="C69">
-        <v>21.7</v>
-      </c>
-      <c r="D69" s="3">
-        <v>700000</v>
-      </c>
-      <c r="E69" s="3">
-        <v>3231500</v>
-      </c>
-      <c r="F69" s="3">
-        <v>3366000</v>
+        <v>19.899999999999999</v>
+      </c>
+      <c r="D69" s="2">
+        <v>100000</v>
+      </c>
+      <c r="E69" s="2">
+        <v>503600</v>
+      </c>
+      <c r="F69" s="2">
+        <v>603648</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2926,19 +2863,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="C70">
-        <v>21</v>
-      </c>
-      <c r="D70" s="3">
-        <v>750000</v>
-      </c>
-      <c r="E70" s="3">
-        <v>3576900</v>
-      </c>
-      <c r="F70" s="3">
-        <v>3987000</v>
+        <v>19.5</v>
+      </c>
+      <c r="D70" s="2">
+        <v>415000</v>
+      </c>
+      <c r="E70" s="2">
+        <v>2126700</v>
+      </c>
+      <c r="F70" s="2">
+        <v>1706000</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2946,19 +2883,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>19.899999999999999</v>
+        <v>18.8</v>
       </c>
       <c r="C71">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="D71" s="3">
-        <v>100000</v>
-      </c>
-      <c r="E71" s="3">
-        <v>503600</v>
-      </c>
-      <c r="F71" s="3">
-        <v>603648</v>
+        <v>18.8</v>
+      </c>
+      <c r="D71" s="2">
+        <v>750000</v>
+      </c>
+      <c r="E71" s="4">
+        <v>3998900</v>
+      </c>
+      <c r="F71" s="2">
+        <v>27720000</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2966,19 +2903,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>19.5</v>
+        <v>17.2</v>
       </c>
       <c r="C72">
-        <v>19.5</v>
-      </c>
-      <c r="D72" s="3">
-        <v>415000</v>
-      </c>
-      <c r="E72" s="3">
-        <v>2126700</v>
-      </c>
-      <c r="F72" s="3">
-        <v>1706000</v>
+        <v>17.2</v>
+      </c>
+      <c r="D72" s="2">
+        <v>1800000</v>
+      </c>
+      <c r="E72" s="2">
+        <v>10478700</v>
+      </c>
+      <c r="F72" s="2">
+        <v>10480000</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2986,19 +2923,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>18.8</v>
+        <v>17.3</v>
       </c>
       <c r="C73">
-        <v>18.8</v>
-      </c>
-      <c r="D73" s="3">
-        <v>750000</v>
-      </c>
-      <c r="E73" s="6">
-        <v>3998900</v>
-      </c>
-      <c r="F73" s="3">
-        <v>27720000</v>
+        <v>17.3</v>
+      </c>
+      <c r="D73" s="2">
+        <v>675000</v>
+      </c>
+      <c r="E73" s="2">
+        <v>3907100</v>
+      </c>
+      <c r="F73" s="2">
+        <v>3880000</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -3006,19 +2943,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>17.2</v>
+        <v>17</v>
       </c>
       <c r="C74">
-        <v>17.2</v>
-      </c>
-      <c r="D74" s="3">
-        <v>1800000</v>
-      </c>
-      <c r="E74" s="3">
-        <v>10478700</v>
-      </c>
-      <c r="F74" s="3">
-        <v>10480000</v>
+        <v>17</v>
+      </c>
+      <c r="D74" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E74" s="2">
+        <v>5898700</v>
+      </c>
+      <c r="F74" s="2">
+        <v>5904000</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -3026,19 +2963,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>17.3</v>
+        <v>15.6</v>
       </c>
       <c r="C75">
-        <v>17.3</v>
-      </c>
-      <c r="D75" s="3">
-        <v>675000</v>
-      </c>
-      <c r="E75" s="3">
-        <v>3907100</v>
-      </c>
-      <c r="F75" s="3">
-        <v>3880000</v>
+        <v>15.6</v>
+      </c>
+      <c r="D75" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="E75" s="2">
+        <v>64232800</v>
+      </c>
+      <c r="F75" s="2">
+        <v>65560000</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -3046,19 +2983,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>17</v>
+        <v>15.3</v>
       </c>
       <c r="C76">
-        <v>17</v>
-      </c>
-      <c r="D76" s="3">
-        <v>1000000</v>
-      </c>
-      <c r="E76" s="3">
-        <v>5898700</v>
-      </c>
-      <c r="F76" s="3">
-        <v>5904000</v>
+        <v>15.3</v>
+      </c>
+      <c r="D76" s="2">
+        <v>70000</v>
+      </c>
+      <c r="E76" s="2">
+        <v>456700</v>
+      </c>
+      <c r="F76" s="2">
+        <v>465158</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -3066,19 +3003,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>15.6</v>
+        <v>15</v>
       </c>
       <c r="C77">
-        <v>15.6</v>
-      </c>
-      <c r="D77" s="3">
-        <v>10000000</v>
-      </c>
-      <c r="E77" s="3">
-        <v>64232800</v>
-      </c>
-      <c r="F77" s="3">
-        <v>65560000</v>
+        <v>15</v>
+      </c>
+      <c r="D77" s="2">
+        <v>3050000</v>
+      </c>
+      <c r="E77" s="2">
+        <v>20329000</v>
+      </c>
+      <c r="F77" s="2">
+        <v>20390000</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -3086,19 +3023,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>15.3</v>
+        <v>15</v>
       </c>
       <c r="C78">
-        <v>15.3</v>
-      </c>
-      <c r="D78" s="3">
-        <v>70000</v>
-      </c>
-      <c r="E78" s="3">
-        <v>456700</v>
-      </c>
-      <c r="F78" s="3">
-        <v>465158</v>
+        <v>15</v>
+      </c>
+      <c r="D78" s="2">
+        <v>15500000</v>
+      </c>
+      <c r="E78" s="2">
+        <v>103089200</v>
+      </c>
+      <c r="F78" s="2">
+        <v>110700000</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -3106,19 +3043,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>15</v>
+        <v>14.6</v>
       </c>
       <c r="C79">
-        <v>15</v>
-      </c>
-      <c r="D79" s="3">
-        <v>3050000</v>
-      </c>
-      <c r="E79" s="3">
-        <v>20329000</v>
-      </c>
-      <c r="F79" s="3">
-        <v>20390000</v>
+        <v>14.6</v>
+      </c>
+      <c r="D79" s="2">
+        <v>110000</v>
+      </c>
+      <c r="E79" s="2">
+        <v>751300</v>
+      </c>
+      <c r="F79" s="2">
+        <v>760834</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -3126,870 +3063,854 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="C80">
-        <v>15</v>
-      </c>
-      <c r="D80" s="3">
-        <v>15500000</v>
-      </c>
-      <c r="E80" s="3">
-        <v>103089200</v>
-      </c>
-      <c r="F80" s="3">
-        <v>110700000</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13.5</v>
+      </c>
+      <c r="D80" s="2">
+        <v>270000</v>
+      </c>
+      <c r="E80" s="2">
+        <v>2000500</v>
+      </c>
+      <c r="F80" s="2">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>84</v>
       </c>
       <c r="B81">
-        <v>14.6</v>
+        <v>13.4</v>
       </c>
       <c r="C81">
-        <v>14.6</v>
-      </c>
-      <c r="D81" s="3">
-        <v>110000</v>
-      </c>
-      <c r="E81" s="3">
-        <v>751300</v>
-      </c>
-      <c r="F81" s="3">
-        <v>760834</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13.4</v>
+      </c>
+      <c r="D81" s="2">
+        <v>60000</v>
+      </c>
+      <c r="E81" s="2">
+        <v>449300</v>
+      </c>
+      <c r="F81" s="2">
+        <v>499523</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>85</v>
       </c>
       <c r="B82">
-        <v>13.5</v>
+        <v>13.1</v>
       </c>
       <c r="C82">
-        <v>13.5</v>
-      </c>
-      <c r="D82" s="3">
-        <v>270000</v>
-      </c>
-      <c r="E82" s="3">
-        <v>2000500</v>
-      </c>
-      <c r="F82" s="3">
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13.1</v>
+      </c>
+      <c r="D82" s="2">
+        <v>1650000</v>
+      </c>
+      <c r="E82" s="2">
+        <v>12599100</v>
+      </c>
+      <c r="F82" s="2">
+        <v>12680000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>86</v>
       </c>
       <c r="B83">
-        <v>13.4</v>
+        <v>12.7</v>
       </c>
       <c r="C83">
-        <v>13.4</v>
-      </c>
-      <c r="D83" s="3">
-        <v>60000</v>
-      </c>
-      <c r="E83" s="3">
-        <v>449300</v>
-      </c>
-      <c r="F83" s="3">
-        <v>499523</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12.7</v>
+      </c>
+      <c r="D83" s="2">
+        <v>5950000</v>
+      </c>
+      <c r="E83" s="2">
+        <v>46888200</v>
+      </c>
+      <c r="F83" s="2">
+        <v>47640000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>87</v>
       </c>
       <c r="B84">
-        <v>13.1</v>
+        <v>12.5</v>
       </c>
       <c r="C84">
-        <v>13.1</v>
-      </c>
-      <c r="D84" s="3">
-        <v>1650000</v>
-      </c>
-      <c r="E84" s="3">
-        <v>12599100</v>
-      </c>
-      <c r="F84" s="3">
-        <v>12680000</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12.5</v>
+      </c>
+      <c r="D84" s="2">
+        <v>9000000</v>
+      </c>
+      <c r="E84" s="2">
+        <v>72065000</v>
+      </c>
+      <c r="F84" s="2">
+        <v>67740000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>88</v>
       </c>
       <c r="B85">
-        <v>12.7</v>
+        <v>12</v>
       </c>
       <c r="C85">
-        <v>12.7</v>
-      </c>
-      <c r="D85" s="3">
-        <v>5950000</v>
-      </c>
-      <c r="E85" s="3">
-        <v>46888200</v>
-      </c>
-      <c r="F85" s="3">
-        <v>47640000</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="D85" s="2">
+        <v>650000</v>
+      </c>
+      <c r="E85" s="2">
+        <v>5416000</v>
+      </c>
+      <c r="F85" s="2">
+        <v>5419432</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>89</v>
       </c>
       <c r="B86">
-        <v>12.5</v>
+        <v>11.9</v>
       </c>
       <c r="C86">
-        <v>12.5</v>
-      </c>
-      <c r="D86" s="3">
-        <v>9000000</v>
-      </c>
-      <c r="E86" s="3">
-        <v>72065000</v>
-      </c>
-      <c r="F86" s="3">
-        <v>67740000</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+        <v>11.9</v>
+      </c>
+      <c r="D86" s="2">
+        <v>7000000</v>
+      </c>
+      <c r="E86" s="2">
+        <v>58607100</v>
+      </c>
+      <c r="F86" s="2">
+        <v>57970000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>90</v>
       </c>
       <c r="B87">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="C87">
-        <v>12</v>
-      </c>
-      <c r="D87" s="3">
-        <v>650000</v>
-      </c>
-      <c r="E87" s="3">
-        <v>5416000</v>
-      </c>
-      <c r="F87" s="3">
-        <v>5419432</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+        <v>11.9</v>
+      </c>
+      <c r="D87" s="2">
+        <v>48000</v>
+      </c>
+      <c r="E87" s="2">
+        <v>403500</v>
+      </c>
+      <c r="F87" s="2">
+        <v>403834</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>91</v>
       </c>
       <c r="B88">
-        <v>11.9</v>
+        <v>11.6</v>
       </c>
       <c r="C88">
-        <v>11.9</v>
-      </c>
-      <c r="D88" s="3">
-        <v>7000000</v>
-      </c>
-      <c r="E88" s="3">
-        <v>58607100</v>
-      </c>
-      <c r="F88" s="3">
-        <v>57970000</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+        <v>11.6</v>
+      </c>
+      <c r="D88" s="2">
+        <v>18000000</v>
+      </c>
+      <c r="E88" s="2">
+        <v>155772000</v>
+      </c>
+      <c r="F88" s="2">
+        <v>158000000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>92</v>
       </c>
       <c r="B89">
-        <v>11.9</v>
+        <v>11.5</v>
       </c>
       <c r="C89">
-        <v>11.9</v>
-      </c>
-      <c r="D89" s="3">
-        <v>48000</v>
-      </c>
-      <c r="E89" s="3">
-        <v>403500</v>
-      </c>
-      <c r="F89" s="3">
-        <v>403834</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+        <v>11.5</v>
+      </c>
+      <c r="D89" s="2">
+        <v>630000</v>
+      </c>
+      <c r="E89" s="2">
+        <v>5473000</v>
+      </c>
+      <c r="F89" s="2">
+        <v>5411000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>93</v>
       </c>
       <c r="B90">
-        <v>11.6</v>
+        <v>10.7</v>
       </c>
       <c r="C90">
-        <v>11.6</v>
-      </c>
-      <c r="D90" s="3">
-        <v>18000000</v>
-      </c>
-      <c r="E90" s="3">
-        <v>155772000</v>
-      </c>
-      <c r="F90" s="3">
-        <v>158000000</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10.7</v>
+      </c>
+      <c r="D90" s="2">
+        <v>1750000</v>
+      </c>
+      <c r="E90" s="2">
+        <v>16295100</v>
+      </c>
+      <c r="F90" s="2">
+        <v>16340000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>94</v>
       </c>
       <c r="B91">
-        <v>11.5</v>
+        <v>10.7</v>
       </c>
       <c r="C91">
-        <v>11.5</v>
-      </c>
-      <c r="D91" s="3">
-        <v>630000</v>
-      </c>
-      <c r="E91" s="3">
-        <v>5473000</v>
-      </c>
-      <c r="F91" s="3">
-        <v>5411000</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10.7</v>
+      </c>
+      <c r="D91" s="2">
+        <v>2850000</v>
+      </c>
+      <c r="E91" s="2">
+        <v>26577000</v>
+      </c>
+      <c r="F91" s="2">
+        <v>26730000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>95</v>
       </c>
       <c r="B92">
-        <v>10.7</v>
+        <v>10.4</v>
       </c>
       <c r="C92">
-        <v>10.7</v>
-      </c>
-      <c r="D92" s="3">
-        <v>1750000</v>
-      </c>
-      <c r="E92" s="3">
-        <v>16295100</v>
-      </c>
-      <c r="F92" s="3">
-        <v>16340000</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10.4</v>
+      </c>
+      <c r="D92" s="2">
+        <v>4500000</v>
+      </c>
+      <c r="E92" s="2">
+        <v>43398200</v>
+      </c>
+      <c r="F92" s="2">
+        <v>44110000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>96</v>
       </c>
       <c r="B93">
-        <v>10.7</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="C93">
-        <v>10.7</v>
-      </c>
-      <c r="D93" s="3">
-        <v>2850000</v>
-      </c>
-      <c r="E93" s="3">
-        <v>26577000</v>
-      </c>
-      <c r="F93" s="3">
-        <v>26730000</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="D93" s="2">
+        <v>3950000</v>
+      </c>
+      <c r="E93" s="2">
+        <v>38747200</v>
+      </c>
+      <c r="F93" s="2">
+        <v>38650000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>97</v>
       </c>
       <c r="B94">
-        <v>10.4</v>
+        <v>9.9</v>
       </c>
       <c r="C94">
-        <v>10.4</v>
-      </c>
-      <c r="D94" s="3">
-        <v>4500000</v>
-      </c>
-      <c r="E94" s="3">
-        <v>43398200</v>
-      </c>
-      <c r="F94" s="3">
-        <v>44110000</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9.9</v>
+      </c>
+      <c r="D94" s="2">
+        <v>430000</v>
+      </c>
+      <c r="E94" s="2">
+        <v>4327300</v>
+      </c>
+      <c r="F94" s="2">
+        <v>4320000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>98</v>
       </c>
       <c r="B95">
-        <v>10.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="C95">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="D95" s="3">
-        <v>3950000</v>
-      </c>
-      <c r="E95" s="3">
-        <v>38747200</v>
-      </c>
-      <c r="F95" s="3">
-        <v>38650000</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9.1</v>
+      </c>
+      <c r="D95" s="2">
+        <v>750000</v>
+      </c>
+      <c r="E95" s="2">
+        <v>8227900</v>
+      </c>
+      <c r="F95" s="2">
+        <v>8467000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>99</v>
       </c>
       <c r="B96">
-        <v>9.9</v>
+        <v>9.1</v>
       </c>
       <c r="C96">
-        <v>9.9</v>
-      </c>
-      <c r="D96" s="3">
-        <v>430000</v>
-      </c>
-      <c r="E96" s="3">
-        <v>4327300</v>
-      </c>
-      <c r="F96" s="3">
-        <v>4320000</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+        <v>9.1</v>
+      </c>
+      <c r="D96" s="2">
+        <v>48500</v>
+      </c>
+      <c r="E96" s="2">
+        <v>533500</v>
+      </c>
+      <c r="H96" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>100</v>
       </c>
       <c r="B97">
-        <v>9.1</v>
+        <v>8.9</v>
       </c>
       <c r="C97">
-        <v>9.1</v>
-      </c>
-      <c r="D97" s="3">
-        <v>750000</v>
-      </c>
-      <c r="E97" s="3">
-        <v>8227900</v>
-      </c>
-      <c r="F97" s="3">
-        <v>8467000</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+        <v>8.9</v>
+      </c>
+      <c r="D97" s="2">
+        <v>12750000</v>
+      </c>
+      <c r="E97" s="2">
+        <v>143113700</v>
+      </c>
+      <c r="F97" s="2">
+        <v>143100000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>101</v>
       </c>
       <c r="B98">
-        <v>9.1</v>
+        <v>8.6</v>
       </c>
       <c r="C98">
-        <v>9.1</v>
-      </c>
-      <c r="D98" s="3">
-        <v>48500</v>
-      </c>
-      <c r="E98" s="3">
-        <v>533500</v>
-      </c>
-      <c r="G98" t="s">
-        <v>188</v>
-      </c>
-      <c r="I98" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+        <v>8.6</v>
+      </c>
+      <c r="D98" s="2">
+        <v>270000</v>
+      </c>
+      <c r="E98" s="2">
+        <v>3130000</v>
+      </c>
+      <c r="F98" s="2">
+        <v>2933000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>102</v>
       </c>
       <c r="B99">
-        <v>8.9</v>
+        <v>8.5</v>
       </c>
       <c r="C99">
-        <v>8.9</v>
-      </c>
-      <c r="D99" s="3">
-        <v>12750000</v>
-      </c>
-      <c r="E99" s="3">
-        <v>143113700</v>
-      </c>
-      <c r="F99" s="3">
-        <v>143100000</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+        <v>8.5</v>
+      </c>
+      <c r="D99" s="2">
+        <v>900000</v>
+      </c>
+      <c r="E99" s="2">
+        <v>10549500</v>
+      </c>
+      <c r="F99" s="2">
+        <v>10500000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>103</v>
       </c>
       <c r="B100">
-        <v>8.6</v>
+        <v>8.1</v>
       </c>
       <c r="C100">
-        <v>8.6</v>
-      </c>
-      <c r="D100" s="3">
-        <v>270000</v>
-      </c>
-      <c r="E100" s="3">
-        <v>3130000</v>
-      </c>
-      <c r="F100" s="3">
-        <v>2933000</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+        <v>8.1</v>
+      </c>
+      <c r="D100" s="2">
+        <v>215000</v>
+      </c>
+      <c r="E100" s="2">
+        <v>2654500</v>
+      </c>
+      <c r="F100" s="2">
+        <v>2644000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>104</v>
       </c>
       <c r="B101">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="C101">
-        <v>8.5</v>
-      </c>
-      <c r="D101" s="3">
-        <v>900000</v>
-      </c>
-      <c r="E101" s="3">
-        <v>10549500</v>
-      </c>
-      <c r="F101" s="3">
-        <v>10500000</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="D101" s="2">
+        <v>14840000</v>
+      </c>
+      <c r="E101" s="2">
+        <v>186405000</v>
+      </c>
+      <c r="F101" s="2">
+        <v>186100000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>105</v>
       </c>
       <c r="B102">
-        <v>8.1</v>
+        <v>7.8</v>
       </c>
       <c r="C102">
-        <v>8.1</v>
-      </c>
-      <c r="D102" s="3">
-        <v>215000</v>
-      </c>
-      <c r="E102" s="3">
-        <v>2654500</v>
-      </c>
-      <c r="F102" s="3">
-        <v>2644000</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+        <v>7.8</v>
+      </c>
+      <c r="D102" s="2">
+        <v>21000</v>
+      </c>
+      <c r="E102" s="2">
+        <v>269600</v>
+      </c>
+      <c r="F102" s="2">
+        <v>273568</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>106</v>
       </c>
       <c r="B103">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="C103">
-        <v>8</v>
-      </c>
-      <c r="D103" s="3">
-        <v>14840000</v>
-      </c>
-      <c r="E103" s="3">
-        <v>186405000</v>
-      </c>
-      <c r="F103" s="3">
-        <v>186100000</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+        <v>7.7</v>
+      </c>
+      <c r="D103" s="2">
+        <v>395000</v>
+      </c>
+      <c r="E103" s="2">
+        <v>5149400</v>
+      </c>
+      <c r="F103" s="2">
+        <v>5455000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>107</v>
       </c>
       <c r="B104">
-        <v>7.8</v>
+        <v>7.3</v>
       </c>
       <c r="C104">
-        <v>7.8</v>
-      </c>
-      <c r="D104" s="3">
-        <v>21000</v>
-      </c>
-      <c r="E104" s="3">
-        <v>269600</v>
-      </c>
-      <c r="F104" s="3">
-        <v>273568</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+        <v>7.3</v>
+      </c>
+      <c r="D104" s="2">
+        <v>710000</v>
+      </c>
+      <c r="E104" s="2">
+        <v>9775600</v>
+      </c>
+      <c r="F104" s="2">
+        <v>9663000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>108</v>
       </c>
       <c r="B105">
-        <v>7.7</v>
+        <v>7.1</v>
       </c>
       <c r="C105">
-        <v>7.7</v>
-      </c>
-      <c r="D105" s="3">
-        <v>395000</v>
-      </c>
-      <c r="E105" s="3">
-        <v>5149400</v>
-      </c>
-      <c r="F105" s="3">
-        <v>5455000</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+        <v>7.1</v>
+      </c>
+      <c r="D105" s="2">
+        <v>300000</v>
+      </c>
+      <c r="E105" s="2">
+        <v>4205800</v>
+      </c>
+      <c r="F105" s="2">
+        <v>3595000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>109</v>
       </c>
       <c r="B106">
-        <v>7.3</v>
+        <v>6.6</v>
       </c>
       <c r="C106">
-        <v>7.3</v>
-      </c>
-      <c r="D106" s="3">
-        <v>710000</v>
-      </c>
-      <c r="E106" s="3">
-        <v>9775600</v>
-      </c>
-      <c r="F106" s="3">
-        <v>9663000</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+        <v>6.6</v>
+      </c>
+      <c r="D106" s="2">
+        <v>3100000</v>
+      </c>
+      <c r="E106" s="2">
+        <v>47075300</v>
+      </c>
+      <c r="F106" s="2">
+        <v>47110000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>110</v>
       </c>
       <c r="B107">
-        <v>7.1</v>
+        <v>6.4</v>
       </c>
       <c r="C107">
-        <v>7.1</v>
-      </c>
-      <c r="D107" s="3">
-        <v>300000</v>
-      </c>
-      <c r="E107" s="3">
-        <v>4205800</v>
-      </c>
-      <c r="F107" s="3">
-        <v>3595000</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+        <v>6.4</v>
+      </c>
+      <c r="D107" s="2">
+        <v>72000</v>
+      </c>
+      <c r="E107" s="2">
+        <v>1131000</v>
+      </c>
+      <c r="F107" s="2">
+        <v>1105000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>111</v>
       </c>
       <c r="B108">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="C108">
-        <v>6.6</v>
-      </c>
-      <c r="D108" s="3">
-        <v>3100000</v>
-      </c>
-      <c r="E108" s="3">
-        <v>47075300</v>
-      </c>
-      <c r="F108" s="3">
-        <v>47110000</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+        <v>6.2</v>
+      </c>
+      <c r="D108" s="2">
+        <v>480000</v>
+      </c>
+      <c r="E108" s="2">
+        <v>7740000</v>
+      </c>
+      <c r="F108" s="2">
+        <v>7740000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>112</v>
       </c>
       <c r="B109">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="C109">
-        <v>6.4</v>
-      </c>
-      <c r="D109" s="3">
-        <v>72000</v>
-      </c>
-      <c r="E109" s="3">
-        <v>1131000</v>
-      </c>
-      <c r="F109" s="3">
-        <v>1105000</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+        <v>5.9</v>
+      </c>
+      <c r="D109" s="2">
+        <v>2700000</v>
+      </c>
+      <c r="E109" s="2">
+        <v>45600300</v>
+      </c>
+      <c r="F109" s="2">
+        <v>43180000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>113</v>
       </c>
       <c r="B110">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="C110">
-        <v>6.2</v>
-      </c>
-      <c r="D110" s="3">
-        <v>480000</v>
-      </c>
-      <c r="E110" s="3">
-        <v>7740000</v>
-      </c>
-      <c r="F110" s="3">
-        <v>7740000</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+        <v>5.8</v>
+      </c>
+      <c r="D110" s="2">
+        <v>400000</v>
+      </c>
+      <c r="E110" s="2">
+        <v>6881000</v>
+      </c>
+      <c r="F110" s="2">
+        <v>6073000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
+        <v>182</v>
+      </c>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2">
+        <v>60400000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>114</v>
       </c>
-      <c r="B111">
-        <v>5.9</v>
-      </c>
-      <c r="C111">
-        <v>5.9</v>
-      </c>
-      <c r="D111" s="3">
-        <v>2700000</v>
-      </c>
-      <c r="E111" s="3">
-        <v>45600300</v>
-      </c>
-      <c r="F111" s="3">
-        <v>43180000</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+      <c r="B112">
+        <v>5.5</v>
+      </c>
+      <c r="C112">
+        <v>5.5</v>
+      </c>
+      <c r="D112" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="E112" s="2">
+        <v>36233000</v>
+      </c>
+      <c r="F112" s="2">
+        <v>31590000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>115</v>
       </c>
-      <c r="B112">
-        <v>5.8</v>
-      </c>
-      <c r="C112">
-        <v>5.8</v>
-      </c>
-      <c r="D112" s="3">
-        <v>400000</v>
-      </c>
-      <c r="E112" s="3">
-        <v>6881000</v>
-      </c>
-      <c r="F112" s="3">
-        <v>6073000</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+      <c r="B113">
+        <v>5.4</v>
+      </c>
+      <c r="C113">
+        <v>5.4</v>
+      </c>
+      <c r="D113" s="2">
+        <v>4600</v>
+      </c>
+      <c r="E113" s="2">
+        <v>84500</v>
+      </c>
+      <c r="F113" s="2">
+        <v>82900</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>116</v>
       </c>
-      <c r="B113">
-        <v>5.5</v>
-      </c>
-      <c r="C113">
-        <v>5.5</v>
-      </c>
-      <c r="D113" s="3">
-        <v>280000</v>
-      </c>
-      <c r="E113" s="3">
-        <v>5116900</v>
-      </c>
-      <c r="F113" s="3">
-        <v>5094800</v>
-      </c>
-      <c r="G113" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+      <c r="B114">
+        <v>5.3</v>
+      </c>
+      <c r="C114">
+        <v>5.3</v>
+      </c>
+      <c r="D114" s="2">
+        <v>17000</v>
+      </c>
+      <c r="E114" s="2">
+        <v>323100</v>
+      </c>
+      <c r="F114" s="2">
+        <v>329088</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
         <v>117</v>
       </c>
-      <c r="B114">
-        <v>5.5</v>
-      </c>
-      <c r="C114">
-        <v>5.5</v>
-      </c>
-      <c r="D114" s="3">
-        <v>2000000</v>
-      </c>
-      <c r="E114" s="3">
-        <v>36233000</v>
-      </c>
-      <c r="F114" s="3">
-        <v>31590000</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+      <c r="B115">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C115">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D115" s="2">
+        <v>450000</v>
+      </c>
+      <c r="E115" s="2">
+        <v>8894900</v>
+      </c>
+      <c r="F115" s="2">
+        <v>9343000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>118</v>
       </c>
-      <c r="B115">
-        <v>5.4</v>
-      </c>
-      <c r="C115">
-        <v>5.4</v>
-      </c>
-      <c r="D115" s="3">
-        <v>4600</v>
-      </c>
-      <c r="E115" s="3">
-        <v>84500</v>
-      </c>
-      <c r="F115" s="3">
-        <v>82900</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+      <c r="B116">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C116">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D116" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E116" s="2">
+        <v>19792300</v>
+      </c>
+      <c r="F116" s="2">
+        <v>21010000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
         <v>119</v>
       </c>
-      <c r="B116">
-        <v>5.3</v>
-      </c>
-      <c r="C116">
-        <v>5.3</v>
-      </c>
-      <c r="D116" s="3">
-        <v>17000</v>
-      </c>
-      <c r="E116" s="3">
-        <v>323100</v>
-      </c>
-      <c r="F116" s="3">
-        <v>329088</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+      <c r="B117">
+        <v>5</v>
+      </c>
+      <c r="C117">
+        <v>5</v>
+      </c>
+      <c r="D117" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="E117" s="2">
+        <v>30168100</v>
+      </c>
+      <c r="F117" s="2">
+        <v>30130000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>120</v>
       </c>
-      <c r="B117">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C117">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="D117" s="3">
-        <v>450000</v>
-      </c>
-      <c r="E117" s="3">
-        <v>8894900</v>
-      </c>
-      <c r="F117" s="3">
-        <v>9343000</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+      <c r="B118">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C118">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D118" s="2">
+        <v>87000</v>
+      </c>
+      <c r="E118" s="2">
+        <v>1765000</v>
+      </c>
+      <c r="F118" s="2">
+        <v>1876000</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
         <v>121</v>
       </c>
-      <c r="B118">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C118">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="D118" s="3">
+      <c r="B119">
+        <v>4.8</v>
+      </c>
+      <c r="C119">
+        <v>4.8</v>
+      </c>
+      <c r="D119" s="2">
+        <v>545000</v>
+      </c>
+      <c r="E119" s="2">
+        <v>11269400</v>
+      </c>
+      <c r="F119" s="2">
+        <v>11290000</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>122</v>
+      </c>
+      <c r="B120">
+        <v>4.7</v>
+      </c>
+      <c r="C120">
+        <v>4.7</v>
+      </c>
+      <c r="D120" s="2">
+        <v>3900000</v>
+      </c>
+      <c r="E120" s="2">
+        <v>83054500</v>
+      </c>
+      <c r="F120" s="2">
+        <v>85820000</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>123</v>
+      </c>
+      <c r="B121">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C121">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D121" s="2">
         <v>1000000</v>
       </c>
-      <c r="E118" s="3">
-        <v>19792300</v>
-      </c>
-      <c r="F118" s="3">
-        <v>21010000</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>122</v>
-      </c>
-      <c r="B119">
-        <v>5</v>
-      </c>
-      <c r="C119">
-        <v>5</v>
-      </c>
-      <c r="D119" s="3">
-        <v>1500000</v>
-      </c>
-      <c r="E119" s="3">
-        <v>30168100</v>
-      </c>
-      <c r="F119" s="3">
-        <v>30130000</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>123</v>
-      </c>
-      <c r="B120">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="C120">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="D120" s="3">
-        <v>87000</v>
-      </c>
-      <c r="E120" s="3">
-        <v>1765000</v>
-      </c>
-      <c r="F120" s="3">
-        <v>1876000</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+      <c r="E121" s="2">
+        <v>22877000</v>
+      </c>
+      <c r="F121" s="2">
+        <v>24860000</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>124</v>
       </c>
-      <c r="B121">
-        <v>4.8</v>
-      </c>
-      <c r="C121">
-        <v>4.8</v>
-      </c>
-      <c r="D121" s="3">
-        <v>545000</v>
-      </c>
-      <c r="E121" s="3">
-        <v>11269400</v>
-      </c>
-      <c r="F121" s="3">
-        <v>11290000</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+      <c r="B122">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C122">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D122" s="2">
+        <v>725000</v>
+      </c>
+      <c r="E122" s="2">
+        <v>16319900</v>
+      </c>
+      <c r="F122" s="2">
+        <v>22704059</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>125</v>
-      </c>
-      <c r="B122">
-        <v>4.7</v>
-      </c>
-      <c r="C122">
-        <v>4.7</v>
-      </c>
-      <c r="D122" s="3">
-        <v>3900000</v>
-      </c>
-      <c r="E122" s="3">
-        <v>83054500</v>
-      </c>
-      <c r="F122" s="3">
-        <v>85820000</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>126</v>
       </c>
       <c r="B123">
         <v>4.4000000000000004</v>
@@ -3997,159 +3918,159 @@
       <c r="C123">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D123" s="3">
-        <v>1000000</v>
-      </c>
-      <c r="E123" s="3">
-        <v>22877000</v>
-      </c>
-      <c r="F123" s="3">
-        <v>24860000</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D123" s="2">
+        <v>400000</v>
+      </c>
+      <c r="E123" s="2">
+        <v>9182000</v>
+      </c>
+      <c r="F123" s="2">
+        <v>12710000</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
+        <v>126</v>
+      </c>
+      <c r="B124">
+        <v>4.3</v>
+      </c>
+      <c r="C124">
+        <v>4.3</v>
+      </c>
+      <c r="D124" s="2">
+        <v>600000</v>
+      </c>
+      <c r="E124" s="2">
+        <v>14071000</v>
+      </c>
+      <c r="F124" s="2">
+        <v>13360000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
         <v>127</v>
       </c>
-      <c r="B124">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C124">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="D124" s="3">
-        <v>725000</v>
-      </c>
-      <c r="E124" s="3">
-        <v>16319900</v>
-      </c>
-      <c r="F124" s="3">
-        <v>22704059</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+      <c r="B125">
+        <v>4.2</v>
+      </c>
+      <c r="C125">
+        <v>4.2</v>
+      </c>
+      <c r="D125" s="2">
+        <v>46000000</v>
+      </c>
+      <c r="E125" s="2">
+        <v>1094583000</v>
+      </c>
+      <c r="F125" s="2">
+        <v>1127000000</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
         <v>128</v>
       </c>
-      <c r="B125">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C125">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="D125" s="3">
-        <v>400000</v>
-      </c>
-      <c r="E125" s="3">
-        <v>9182000</v>
-      </c>
-      <c r="F125" s="3">
-        <v>12710000</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+      <c r="B126">
+        <v>4</v>
+      </c>
+      <c r="C126">
+        <v>4</v>
+      </c>
+      <c r="D126" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="E126" s="2">
+        <v>50519500</v>
+      </c>
+      <c r="F126" s="2">
+        <v>50180000</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
         <v>129</v>
       </c>
-      <c r="B126">
-        <v>4.3</v>
-      </c>
-      <c r="C126">
-        <v>4.3</v>
-      </c>
-      <c r="D126" s="3">
-        <v>600000</v>
-      </c>
-      <c r="E126" s="3">
-        <v>14071000</v>
-      </c>
-      <c r="F126" s="3">
-        <v>13360000</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+      <c r="B127">
+        <v>3.9</v>
+      </c>
+      <c r="C127">
+        <v>3.9</v>
+      </c>
+      <c r="D127" s="2">
+        <v>510000</v>
+      </c>
+      <c r="E127" s="2">
+        <v>13009600</v>
+      </c>
+      <c r="F127" s="2">
+        <v>16320000</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
         <v>130</v>
       </c>
-      <c r="B127">
-        <v>4.2</v>
-      </c>
-      <c r="C127">
-        <v>4.2</v>
-      </c>
-      <c r="D127" s="3">
-        <v>46000000</v>
-      </c>
-      <c r="E127" s="3">
-        <v>1094583000</v>
-      </c>
-      <c r="F127" s="3">
-        <v>1127000000</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>131</v>
-      </c>
       <c r="B128">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C128">
-        <v>4</v>
-      </c>
-      <c r="D128" s="3">
-        <v>2000000</v>
-      </c>
-      <c r="E128" s="3">
-        <v>50519500</v>
-      </c>
-      <c r="F128" s="3">
-        <v>50180000</v>
+        <v>2</v>
+      </c>
+      <c r="D128" s="2">
+        <v>230000</v>
+      </c>
+      <c r="E128" s="2">
+        <v>11668500</v>
+      </c>
+      <c r="F128" s="2">
+        <v>11270000</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B129">
-        <v>3.9</v>
+        <v>1.6</v>
       </c>
       <c r="C129">
-        <v>3.9</v>
-      </c>
-      <c r="D129" s="3">
-        <v>510000</v>
-      </c>
-      <c r="E129" s="3">
-        <v>13009600</v>
-      </c>
-      <c r="F129" s="3">
-        <v>16320000</v>
+        <v>1.6</v>
+      </c>
+      <c r="D129" s="2">
+        <v>25000</v>
+      </c>
+      <c r="E129" s="2">
+        <v>1586400</v>
+      </c>
+      <c r="F129" s="2">
+        <v>1422000</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B130">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="C130">
-        <v>2</v>
-      </c>
-      <c r="D130" s="3">
-        <v>230000</v>
-      </c>
-      <c r="E130" s="3">
-        <v>11668500</v>
-      </c>
-      <c r="F130" s="3">
-        <v>11270000</v>
+        <v>1.6</v>
+      </c>
+      <c r="D130" s="2">
+        <v>51000</v>
+      </c>
+      <c r="E130" s="2">
+        <v>3283300</v>
+      </c>
+      <c r="F130" s="2">
+        <v>3270000</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B131">
         <v>1.6</v>
@@ -4157,19 +4078,19 @@
       <c r="C131">
         <v>1.6</v>
       </c>
-      <c r="D131" s="3">
-        <v>25000</v>
-      </c>
-      <c r="E131" s="3">
-        <v>1586400</v>
-      </c>
-      <c r="F131" s="3">
-        <v>1422000</v>
+      <c r="D131" s="2">
+        <v>50000</v>
+      </c>
+      <c r="E131" s="2">
+        <v>3068800</v>
+      </c>
+      <c r="F131" s="2">
+        <v>3146000</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B132">
         <v>1.6</v>
@@ -4177,59 +4098,59 @@
       <c r="C132">
         <v>1.6</v>
       </c>
-      <c r="D132" s="3">
-        <v>51000</v>
-      </c>
-      <c r="E132" s="3">
-        <v>3283300</v>
-      </c>
-      <c r="F132" s="3">
-        <v>3270000</v>
+      <c r="D132" s="2">
+        <v>21000</v>
+      </c>
+      <c r="E132" s="2">
+        <v>1305300</v>
+      </c>
+      <c r="F132" s="2">
+        <v>1297000</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B133">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="C133">
-        <v>1.6</v>
-      </c>
-      <c r="D133" s="3">
-        <v>50000</v>
-      </c>
-      <c r="E133" s="3">
-        <v>3068800</v>
-      </c>
-      <c r="F133" s="3">
-        <v>3146000</v>
+        <v>1.5</v>
+      </c>
+      <c r="D133" s="2">
+        <v>370000</v>
+      </c>
+      <c r="E133" s="2">
+        <v>25347400</v>
+      </c>
+      <c r="F133" s="2">
+        <v>25840000</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B134">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="C134">
-        <v>1.6</v>
-      </c>
-      <c r="D134" s="3">
-        <v>21000</v>
-      </c>
-      <c r="E134" s="3">
-        <v>1305300</v>
-      </c>
-      <c r="F134" s="3">
-        <v>1297000</v>
+        <v>1.5</v>
+      </c>
+      <c r="D134" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="E134" s="2">
+        <v>135700000</v>
+      </c>
+      <c r="F134" s="2">
+        <v>139600000</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B135">
         <v>1.5</v>
@@ -4237,59 +4158,59 @@
       <c r="C135">
         <v>1.5</v>
       </c>
-      <c r="D135" s="3">
-        <v>370000</v>
-      </c>
-      <c r="E135" s="3">
-        <v>25347400</v>
-      </c>
-      <c r="F135" s="3">
-        <v>25840000</v>
+      <c r="D135" s="2">
+        <v>300000</v>
+      </c>
+      <c r="E135" s="2">
+        <v>19625400</v>
+      </c>
+      <c r="F135" s="2">
+        <v>19640000</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B136">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="C136">
-        <v>1.5</v>
-      </c>
-      <c r="D136" s="3">
-        <v>2000000</v>
-      </c>
-      <c r="E136" s="3">
-        <v>135700000</v>
-      </c>
-      <c r="F136" s="3">
-        <v>139600000</v>
+        <v>1.4</v>
+      </c>
+      <c r="D136" s="2">
+        <v>120000</v>
+      </c>
+      <c r="E136" s="2">
+        <v>8438900</v>
+      </c>
+      <c r="F136" s="2">
+        <v>8182000</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B137">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="C137">
-        <v>1.5</v>
-      </c>
-      <c r="D137" s="3">
-        <v>300000</v>
-      </c>
-      <c r="E137" s="3">
-        <v>19625400</v>
-      </c>
-      <c r="F137" s="3">
-        <v>19640000</v>
+        <v>1.4</v>
+      </c>
+      <c r="D137" s="2">
+        <v>5400</v>
+      </c>
+      <c r="E137" s="2">
+        <v>373900</v>
+      </c>
+      <c r="F137" s="2">
+        <v>367815</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
       <c r="B138">
         <v>1.4</v>
@@ -4297,19 +4218,19 @@
       <c r="C138">
         <v>1.4</v>
       </c>
-      <c r="D138" s="3">
-        <v>120000</v>
-      </c>
-      <c r="E138" s="3">
-        <v>8438900</v>
-      </c>
-      <c r="F138" s="3">
-        <v>8182000</v>
+      <c r="D138" s="2">
+        <v>800000</v>
+      </c>
+      <c r="E138" s="2">
+        <v>57548800</v>
+      </c>
+      <c r="F138" s="2">
+        <v>54030000</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B139">
         <v>1.4</v>
@@ -4317,19 +4238,19 @@
       <c r="C139">
         <v>1.4</v>
       </c>
-      <c r="D139" s="3">
-        <v>5400</v>
-      </c>
-      <c r="E139" s="3">
-        <v>373900</v>
-      </c>
-      <c r="F139" s="3">
-        <v>367815</v>
+      <c r="D139" s="2">
+        <v>550000</v>
+      </c>
+      <c r="E139" s="2">
+        <v>38328800</v>
+      </c>
+      <c r="F139" s="2">
+        <v>38820000</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B140">
         <v>1.4</v>
@@ -4337,59 +4258,59 @@
       <c r="C140">
         <v>1.4</v>
       </c>
-      <c r="D140" s="3">
-        <v>800000</v>
-      </c>
-      <c r="E140" s="3">
-        <v>57548800</v>
-      </c>
-      <c r="F140" s="3">
-        <v>54030000</v>
+      <c r="D140" s="2">
+        <v>400000</v>
+      </c>
+      <c r="E140" s="2">
+        <v>28816300</v>
+      </c>
+      <c r="F140" s="2">
+        <v>28720000</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B141">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="C141">
-        <v>1.4</v>
-      </c>
-      <c r="D141" s="3">
-        <v>550000</v>
-      </c>
-      <c r="E141" s="3">
-        <v>38328800</v>
-      </c>
-      <c r="F141" s="3">
-        <v>38820000</v>
+        <v>1.3</v>
+      </c>
+      <c r="D141" s="2">
+        <v>370000</v>
+      </c>
+      <c r="E141" s="4">
+        <v>27968300</v>
+      </c>
+      <c r="F141" s="2">
+        <v>13780000</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B142">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="C142">
-        <v>1.4</v>
-      </c>
-      <c r="D142" s="3">
-        <v>400000</v>
-      </c>
-      <c r="E142" s="3">
-        <v>28816300</v>
-      </c>
-      <c r="F142" s="3">
-        <v>28720000</v>
+        <v>1.3</v>
+      </c>
+      <c r="D142" s="2">
+        <v>200000</v>
+      </c>
+      <c r="E142" s="2">
+        <v>15146100</v>
+      </c>
+      <c r="F142" s="2">
+        <v>15150000</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B143">
         <v>1.3</v>
@@ -4397,59 +4318,59 @@
       <c r="C143">
         <v>1.3</v>
       </c>
-      <c r="D143" s="3">
-        <v>370000</v>
-      </c>
-      <c r="E143" s="6">
-        <v>27968300</v>
-      </c>
-      <c r="F143" s="3">
-        <v>13780000</v>
+      <c r="D143" s="2">
+        <v>510000</v>
+      </c>
+      <c r="E143" s="2">
+        <v>38165500</v>
+      </c>
+      <c r="F143" s="2">
+        <v>38170000</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B144">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="C144">
-        <v>1.3</v>
-      </c>
-      <c r="D144" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="D144" s="2">
         <v>200000</v>
       </c>
-      <c r="E144" s="3">
-        <v>15146100</v>
-      </c>
-      <c r="F144" s="3">
-        <v>15150000</v>
+      <c r="E144" s="4">
+        <v>16800000</v>
+      </c>
+      <c r="F144" s="2">
+        <v>7770000</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B145">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="C145">
-        <v>1.3</v>
-      </c>
-      <c r="D145" s="3">
-        <v>510000</v>
-      </c>
-      <c r="E145" s="3">
-        <v>38165500</v>
-      </c>
-      <c r="F145" s="3">
-        <v>38170000</v>
+        <v>1.2</v>
+      </c>
+      <c r="D145" s="2">
+        <v>110000</v>
+      </c>
+      <c r="E145" s="2">
+        <v>9402100</v>
+      </c>
+      <c r="F145" s="2">
+        <v>9576000</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B146">
         <v>1.2</v>
@@ -4457,19 +4378,19 @@
       <c r="C146">
         <v>1.2</v>
       </c>
-      <c r="D146" s="3">
-        <v>200000</v>
-      </c>
-      <c r="E146" s="6">
-        <v>16800000</v>
-      </c>
-      <c r="F146" s="3">
-        <v>7770000</v>
+      <c r="D146" s="2">
+        <v>71000</v>
+      </c>
+      <c r="E146" s="2">
+        <v>5924200</v>
+      </c>
+      <c r="F146" s="2">
+        <v>5791000</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B147">
         <v>1.2</v>
@@ -4477,59 +4398,59 @@
       <c r="C147">
         <v>1.2</v>
       </c>
-      <c r="D147" s="3">
-        <v>110000</v>
-      </c>
-      <c r="E147" s="3">
-        <v>9402100</v>
-      </c>
-      <c r="F147" s="3">
-        <v>9576000</v>
+      <c r="D147" s="2">
+        <v>71000</v>
+      </c>
+      <c r="E147" s="2">
+        <v>5887200</v>
+      </c>
+      <c r="F147" s="2">
+        <v>6096000</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B148">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C148">
-        <v>1.2</v>
-      </c>
-      <c r="D148" s="3">
-        <v>71000</v>
-      </c>
-      <c r="E148" s="3">
-        <v>5924200</v>
-      </c>
-      <c r="F148" s="3">
-        <v>5791000</v>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D148" s="2">
+        <v>148000</v>
+      </c>
+      <c r="E148" s="2">
+        <v>13227900</v>
+      </c>
+      <c r="F148" s="2">
+        <v>13420000</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B149">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C149">
-        <v>1.2</v>
-      </c>
-      <c r="D149" s="3">
-        <v>71000</v>
-      </c>
-      <c r="E149" s="3">
-        <v>5887200</v>
-      </c>
-      <c r="F149" s="3">
-        <v>6096000</v>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D149" s="2">
+        <v>109000</v>
+      </c>
+      <c r="E149" s="2">
+        <v>9749000</v>
+      </c>
+      <c r="F149" s="2">
+        <v>10010000</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B150">
         <v>1.1000000000000001</v>
@@ -4537,19 +4458,19 @@
       <c r="C150">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D150" s="3">
-        <v>148000</v>
-      </c>
-      <c r="E150" s="3">
-        <v>13227900</v>
-      </c>
-      <c r="F150" s="3">
-        <v>13420000</v>
+      <c r="D150" s="2">
+        <v>510000</v>
+      </c>
+      <c r="E150" s="2">
+        <v>48294200</v>
+      </c>
+      <c r="F150" s="2">
+        <v>48140000</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B151">
         <v>1.1000000000000001</v>
@@ -4557,59 +4478,59 @@
       <c r="C151">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D151" s="3">
-        <v>109000</v>
-      </c>
-      <c r="E151" s="3">
-        <v>9749000</v>
-      </c>
-      <c r="F151" s="3">
-        <v>10010000</v>
+      <c r="D151" s="2">
+        <v>143000</v>
+      </c>
+      <c r="E151" s="4">
+        <v>13518500</v>
+      </c>
+      <c r="F151" s="2">
+        <v>11940000</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B152">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="C152">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D152" s="3">
-        <v>510000</v>
-      </c>
-      <c r="E152" s="3">
-        <v>48294200</v>
-      </c>
-      <c r="F152" s="3">
-        <v>48140000</v>
+        <v>1</v>
+      </c>
+      <c r="D152" s="2">
+        <v>40000</v>
+      </c>
+      <c r="E152" s="2">
+        <v>4037800</v>
+      </c>
+      <c r="F152" s="2">
+        <v>3961000</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B153">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="C153">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D153" s="3">
-        <v>143000</v>
-      </c>
-      <c r="E153" s="6">
-        <v>13518500</v>
-      </c>
-      <c r="F153" s="3">
-        <v>11940000</v>
+        <v>1</v>
+      </c>
+      <c r="D153" s="2">
+        <v>65000</v>
+      </c>
+      <c r="E153" s="2">
+        <v>6506100</v>
+      </c>
+      <c r="F153" s="2">
+        <v>6806000</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B154">
         <v>1</v>
@@ -4617,79 +4538,79 @@
       <c r="C154">
         <v>1</v>
       </c>
-      <c r="D154" s="3">
-        <v>40000</v>
-      </c>
-      <c r="E154" s="3">
-        <v>4037800</v>
-      </c>
-      <c r="F154" s="3">
-        <v>3961000</v>
+      <c r="D154" s="2">
+        <v>60000</v>
+      </c>
+      <c r="E154" s="2">
+        <v>6145000</v>
+      </c>
+      <c r="F154" s="2">
+        <v>5540000</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B155">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="C155">
-        <v>1</v>
-      </c>
-      <c r="D155" s="3">
-        <v>65000</v>
-      </c>
-      <c r="E155" s="3">
-        <v>6506100</v>
-      </c>
-      <c r="F155" s="3">
-        <v>6806000</v>
+        <v>0.9</v>
+      </c>
+      <c r="D155" s="2">
+        <v>45000</v>
+      </c>
+      <c r="E155" s="2">
+        <v>5143500</v>
+      </c>
+      <c r="F155" s="2">
+        <v>5163000</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B156">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="C156">
-        <v>1</v>
-      </c>
-      <c r="D156" s="3">
-        <v>60000</v>
-      </c>
-      <c r="E156" s="3">
-        <v>6145000</v>
-      </c>
-      <c r="F156" s="3">
-        <v>5540000</v>
+        <v>0.8</v>
+      </c>
+      <c r="D156" s="2">
+        <v>123000</v>
+      </c>
+      <c r="E156" s="2">
+        <v>15171000</v>
+      </c>
+      <c r="F156" s="2">
+        <v>1437000</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B157">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="C157">
-        <v>0.9</v>
-      </c>
-      <c r="D157" s="3">
-        <v>45000</v>
-      </c>
-      <c r="E157" s="3">
-        <v>5143500</v>
-      </c>
-      <c r="F157" s="3">
-        <v>5163000</v>
+        <v>0.8</v>
+      </c>
+      <c r="D157" s="2">
+        <v>150000</v>
+      </c>
+      <c r="E157" s="2">
+        <v>18606000</v>
+      </c>
+      <c r="F157" s="2">
+        <v>18290000</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B158">
         <v>0.8</v>
@@ -4697,59 +4618,59 @@
       <c r="C158">
         <v>0.8</v>
       </c>
-      <c r="D158" s="3">
-        <v>123000</v>
-      </c>
-      <c r="E158" s="3">
-        <v>15171000</v>
-      </c>
-      <c r="F158" s="3">
-        <v>1437000</v>
+      <c r="D158" s="2">
+        <v>205000</v>
+      </c>
+      <c r="E158" s="2">
+        <v>27132700</v>
+      </c>
+      <c r="F158" s="2">
+        <v>25290000</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B159">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="C159">
-        <v>0.8</v>
-      </c>
-      <c r="D159" s="3">
-        <v>150000</v>
-      </c>
-      <c r="E159" s="3">
-        <v>18606000</v>
-      </c>
-      <c r="F159" s="3">
-        <v>18290000</v>
+        <v>0.7</v>
+      </c>
+      <c r="D159" s="2">
+        <v>135000</v>
+      </c>
+      <c r="E159" s="4">
+        <v>19043400</v>
+      </c>
+      <c r="F159" s="2">
+        <v>3323000</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B160">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="C160">
-        <v>0.8</v>
-      </c>
-      <c r="D160" s="3">
-        <v>205000</v>
-      </c>
-      <c r="E160" s="3">
-        <v>27132700</v>
-      </c>
-      <c r="F160" s="3">
-        <v>25290000</v>
+        <v>0.7</v>
+      </c>
+      <c r="D160" s="2">
+        <v>92000</v>
+      </c>
+      <c r="E160" s="2">
+        <v>12884000</v>
+      </c>
+      <c r="F160" s="2">
+        <v>12920000</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B161">
         <v>0.7</v>
@@ -4757,19 +4678,19 @@
       <c r="C161">
         <v>0.7</v>
       </c>
-      <c r="D161" s="3">
-        <v>135000</v>
-      </c>
-      <c r="E161" s="6">
-        <v>19043400</v>
-      </c>
-      <c r="F161" s="3">
-        <v>3323000</v>
+      <c r="D161" s="2">
+        <v>93000</v>
+      </c>
+      <c r="E161" s="2">
+        <v>13957000</v>
+      </c>
+      <c r="F161" s="2">
+        <v>13180000</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B162">
         <v>0.7</v>
@@ -4777,59 +4698,59 @@
       <c r="C162">
         <v>0.7</v>
       </c>
-      <c r="D162" s="3">
-        <v>92000</v>
-      </c>
-      <c r="E162" s="3">
-        <v>12884000</v>
-      </c>
-      <c r="F162" s="3">
-        <v>12920000</v>
+      <c r="D162" s="2">
+        <v>160000</v>
+      </c>
+      <c r="E162" s="2">
+        <v>21634400</v>
+      </c>
+      <c r="F162" s="2">
+        <v>21320000</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B163">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="C163">
-        <v>0.7</v>
-      </c>
-      <c r="D163" s="3">
-        <v>93000</v>
-      </c>
-      <c r="E163" s="3">
-        <v>13957000</v>
-      </c>
-      <c r="F163" s="3">
-        <v>13180000</v>
+        <v>0.6</v>
+      </c>
+      <c r="D163" s="2">
+        <v>190000</v>
+      </c>
+      <c r="E163" s="2">
+        <v>34255800</v>
+      </c>
+      <c r="F163" s="2">
+        <v>9261000</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B164">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="C164">
-        <v>0.7</v>
-      </c>
-      <c r="D164" s="3">
-        <v>160000</v>
-      </c>
-      <c r="E164" s="3">
-        <v>21634400</v>
-      </c>
-      <c r="F164" s="3">
-        <v>21320000</v>
+        <v>0.6</v>
+      </c>
+      <c r="D164" s="2">
+        <v>710000</v>
+      </c>
+      <c r="E164" s="2">
+        <v>127565000</v>
+      </c>
+      <c r="F164" s="2">
+        <v>127800000</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B165">
         <v>0.6</v>
@@ -4837,19 +4758,19 @@
       <c r="C165">
         <v>0.6</v>
       </c>
-      <c r="D165" s="3">
-        <v>190000</v>
-      </c>
-      <c r="E165" s="3">
-        <v>34255800</v>
-      </c>
-      <c r="F165" s="3">
-        <v>9261000</v>
+      <c r="D165" s="2">
+        <v>130000</v>
+      </c>
+      <c r="E165" s="2">
+        <v>22487700</v>
+      </c>
+      <c r="F165" s="2">
+        <v>23810000</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B166">
         <v>0.6</v>
@@ -4857,19 +4778,19 @@
       <c r="C166">
         <v>0.6</v>
       </c>
-      <c r="D166" s="3">
-        <v>710000</v>
-      </c>
-      <c r="E166" s="3">
-        <v>127565000</v>
-      </c>
-      <c r="F166" s="3">
-        <v>127800000</v>
+      <c r="D166" s="2">
+        <v>58000</v>
+      </c>
+      <c r="E166" s="2">
+        <v>9037700</v>
+      </c>
+      <c r="F166" s="2">
+        <v>9429000</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B167">
         <v>0.6</v>
@@ -4877,59 +4798,59 @@
       <c r="C167">
         <v>0.6</v>
       </c>
-      <c r="D167" s="3">
-        <v>130000</v>
-      </c>
-      <c r="E167" s="3">
-        <v>22487700</v>
-      </c>
-      <c r="F167" s="3">
-        <v>23810000</v>
+      <c r="D167" s="2">
+        <v>34000</v>
+      </c>
+      <c r="E167" s="2">
+        <v>5525500</v>
+      </c>
+      <c r="F167" s="2">
+        <v>5120000</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B168">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="C168">
-        <v>0.6</v>
-      </c>
-      <c r="D168" s="3">
-        <v>58000</v>
-      </c>
-      <c r="E168" s="3">
-        <v>9037700</v>
-      </c>
-      <c r="F168" s="3">
-        <v>9429000</v>
+        <v>0.5</v>
+      </c>
+      <c r="D168" s="2">
+        <v>700000</v>
+      </c>
+      <c r="E168" s="2">
+        <v>141822300</v>
+      </c>
+      <c r="F168" s="2">
+        <v>143100000</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B169">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="C169">
-        <v>0.6</v>
-      </c>
-      <c r="D169" s="3">
-        <v>34000</v>
-      </c>
-      <c r="E169" s="3">
-        <v>5525500</v>
-      </c>
-      <c r="F169" s="3">
-        <v>5120000</v>
+        <v>0.5</v>
+      </c>
+      <c r="D169" s="2">
+        <v>20000</v>
+      </c>
+      <c r="E169" s="2">
+        <v>4401400</v>
+      </c>
+      <c r="F169" s="2">
+        <v>4854000</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B170">
         <v>0.5</v>
@@ -4937,19 +4858,19 @@
       <c r="C170">
         <v>0.5</v>
       </c>
-      <c r="D170" s="3">
-        <v>700000</v>
-      </c>
-      <c r="E170" s="3">
-        <v>141822300</v>
-      </c>
-      <c r="F170" s="3">
-        <v>143100000</v>
+      <c r="D170" s="2">
+        <v>4000</v>
+      </c>
+      <c r="E170" s="2">
+        <v>847700</v>
+      </c>
+      <c r="F170" s="2">
+        <v>822484</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B171">
         <v>0.5</v>
@@ -4957,19 +4878,19 @@
       <c r="C171">
         <v>0.5</v>
       </c>
-      <c r="D171" s="3">
-        <v>20000</v>
-      </c>
-      <c r="E171" s="3">
-        <v>4401400</v>
-      </c>
-      <c r="F171" s="3">
-        <v>4854000</v>
+      <c r="D171" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E171" s="2">
+        <v>220558000</v>
+      </c>
+      <c r="F171" s="2">
+        <v>224500000</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B172">
         <v>0.5</v>
@@ -4977,59 +4898,59 @@
       <c r="C172">
         <v>0.5</v>
       </c>
-      <c r="D172" s="3">
-        <v>4000</v>
-      </c>
-      <c r="E172" s="3">
-        <v>847700</v>
-      </c>
-      <c r="F172" s="3">
-        <v>822484</v>
+      <c r="D172" s="2">
+        <v>22000</v>
+      </c>
+      <c r="E172" s="2">
+        <v>4341800</v>
+      </c>
+      <c r="F172" s="2">
+        <v>4266000</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B173">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="C173">
-        <v>0.5</v>
-      </c>
-      <c r="D173" s="3">
-        <v>1000000</v>
-      </c>
-      <c r="E173" s="3">
-        <v>220558000</v>
-      </c>
-      <c r="F173" s="3">
-        <v>224500000</v>
+        <v>0.4</v>
+      </c>
+      <c r="D173" s="2">
+        <v>320000</v>
+      </c>
+      <c r="E173" s="2">
+        <v>71256000</v>
+      </c>
+      <c r="F173" s="2">
+        <v>76170000</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B174">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="C174">
-        <v>0.5</v>
-      </c>
-      <c r="D174" s="3">
-        <v>22000</v>
-      </c>
-      <c r="E174" s="3">
-        <v>4341800</v>
-      </c>
-      <c r="F174" s="3">
-        <v>4266000</v>
+        <v>0.4</v>
+      </c>
+      <c r="D174" s="2">
+        <v>80000</v>
+      </c>
+      <c r="E174" s="2">
+        <v>22112800</v>
+      </c>
+      <c r="F174" s="2">
+        <v>21380000</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B175">
         <v>0.4</v>
@@ -5037,117 +4958,54 @@
       <c r="C175">
         <v>0.4</v>
       </c>
-      <c r="D175" s="3">
-        <v>320000</v>
-      </c>
-      <c r="E175" s="3">
-        <v>71256000</v>
-      </c>
-      <c r="F175" s="3">
-        <v>76170000</v>
+      <c r="D175" s="2">
+        <v>1800</v>
+      </c>
+      <c r="E175" s="2">
+        <v>477800</v>
+      </c>
+      <c r="F175" s="2">
+        <v>469306</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B176">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="C176">
-        <v>0.4</v>
-      </c>
-      <c r="D176" s="3">
-        <v>80000</v>
-      </c>
-      <c r="E176" s="3">
-        <v>22112800</v>
-      </c>
-      <c r="F176" s="3">
-        <v>21380000</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.3</v>
+      </c>
+      <c r="D176" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E176" s="2">
+        <v>950000</v>
+      </c>
+      <c r="F176" s="2">
+        <v>982889</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B177">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="C177">
-        <v>0.4</v>
-      </c>
-      <c r="D177" s="3">
-        <v>1800</v>
-      </c>
-      <c r="E177" s="3">
-        <v>477800</v>
-      </c>
-      <c r="F177" s="3">
-        <v>469306</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>181</v>
-      </c>
-      <c r="B178">
-        <v>0.3</v>
-      </c>
-      <c r="C178">
-        <v>0.3</v>
-      </c>
-      <c r="D178" s="3">
-        <v>3000</v>
-      </c>
-      <c r="E178" s="3">
-        <v>950000</v>
-      </c>
-      <c r="F178" s="3">
-        <v>982889</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>182</v>
-      </c>
-      <c r="B179">
         <v>0.1</v>
       </c>
-      <c r="C179">
-        <v>0.1</v>
-      </c>
-      <c r="D179" s="3">
+      <c r="D177" s="2">
         <v>9000</v>
       </c>
-      <c r="E179" s="3">
+      <c r="E177" s="2">
         <v>10029000</v>
       </c>
-      <c r="F179" s="3">
+      <c r="F177" s="2">
         <v>10030000</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D180" s="3"/>
-      <c r="E180" s="3"/>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>187</v>
-      </c>
-      <c r="G181" s="9" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>190</v>
-      </c>
-      <c r="F182" s="3">
-        <v>60400000</v>
-      </c>
-      <c r="G182">
-        <v>2005</v>
       </c>
     </row>
   </sheetData>
